--- a/jadwal_kalenderkui.xlsx
+++ b/jadwal_kalenderkui.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/384a2e2a33609d7f/ドキュメント/kalender/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_B0EF37B394641FD2FA44F2C0793D7506FA377F02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7060E908-B58E-4041-ABE1-401FFB3E15C0}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="11_B0EF37B394641FD2FA44F2C0793D7506FA377F02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD75E908-5A6D-46A4-A385-76CA1D63430D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="925" firstSheet="54" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" tabRatio="925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT.MAYA AGRO INVESTAMA" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8061" uniqueCount="2958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8059" uniqueCount="2958">
   <si>
     <t>MASA BERLAKU</t>
   </si>
@@ -9458,7 +9458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9616,6 +9616,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9772,6 +9779,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9810,34 +9835,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10146,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10170,34 +10167,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="M1" s="58" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="M1" s="61" t="s">
         <v>1445</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -10238,8 +10235,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>47</v>
+      <c r="A4" s="4">
+        <v>45959</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -10276,8 +10273,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
+      <c r="A5" s="4">
+        <v>45959</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -11099,86 +11096,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="E1" s="64" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="67" t="s">
         <v>886</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="I1" s="103" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="106" t="s">
         <v>886</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="105"/>
-      <c r="M1" s="103" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="108"/>
+      <c r="M1" s="106" t="s">
         <v>1282</v>
       </c>
-      <c r="N1" s="104"/>
-      <c r="O1" s="105"/>
-      <c r="Q1" s="103" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
+      <c r="Q1" s="106" t="s">
         <v>1518</v>
       </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="105"/>
-      <c r="U1" s="103" t="s">
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
+      <c r="U1" s="106" t="s">
         <v>886</v>
       </c>
-      <c r="V1" s="104"/>
-      <c r="W1" s="105"/>
-      <c r="Y1" s="103" t="s">
+      <c r="V1" s="107"/>
+      <c r="W1" s="108"/>
+      <c r="Y1" s="106" t="s">
         <v>1898</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="105"/>
-      <c r="AC1" s="64" t="s">
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108"/>
+      <c r="AC1" s="67" t="s">
         <v>2135</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="66"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69"/>
+      <c r="AG1" s="67" t="s">
         <v>2136</v>
       </c>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AK1" s="73" t="s">
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="69"/>
+      <c r="AK1" s="76" t="s">
         <v>2135</v>
       </c>
-      <c r="AL1" s="122"/>
-      <c r="AM1" s="122"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="108"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="108"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="108"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="108"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="74"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="74"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="111"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="111"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="111"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="77"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="77"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -11262,7 +11259,7 @@
       <c r="AI3" s="29" t="s">
         <v>2028</v>
       </c>
-      <c r="AK3" s="131" t="s">
+      <c r="AK3" s="59" t="s">
         <v>0</v>
       </c>
       <c r="AL3" s="15" t="s">
@@ -14497,28 +14494,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -14693,20 +14690,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -14955,100 +14952,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="55"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="I1" s="64" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+      <c r="I1" s="67" t="s">
         <v>697</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="78"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="78"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="91"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="91"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="91"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="91"/>
-      <c r="AS1" s="64" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="81"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="81"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="94"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="94"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="94"/>
+      <c r="AS1" s="67" t="s">
         <v>2171</v>
       </c>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="66"/>
-      <c r="AW1" s="103" t="s">
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="69"/>
+      <c r="AW1" s="106" t="s">
         <v>697</v>
       </c>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="105"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="107"/>
+      <c r="BB1" s="108"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="56"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="81"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="94"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="94"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="94"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="69"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="108"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="97"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="97"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="97"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="97"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="97"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="72"/>
+      <c r="AW2" s="109"/>
+      <c r="AX2" s="110"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="110"/>
+      <c r="BA2" s="110"/>
+      <c r="BB2" s="111"/>
     </row>
     <row r="3" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -17725,44 +17722,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="97"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -18649,90 +18646,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AO1" s="64" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AO1" s="67" t="s">
         <v>2085</v>
       </c>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="66"/>
-      <c r="AS1" s="64" t="s">
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="69"/>
+      <c r="AS1" s="67" t="s">
         <v>2086</v>
       </c>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="66"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="78"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="69"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="81"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="69"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="81"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="97"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="72"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="72"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="84"/>
     </row>
     <row r="3" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -18962,7 +18959,7 @@
       <c r="AU4" s="12">
         <v>44803</v>
       </c>
-      <c r="AW4" s="123">
+      <c r="AW4" s="57">
         <f>DATE(YEAR(AY4)+1,MONTH(AY4),DAY(AY4))</f>
         <v>46248</v>
       </c>
@@ -19518,7 +19515,7 @@
         <v>44803</v>
       </c>
       <c r="AW9" s="9">
-        <f>DATE(YEAR(AY9)+2,MONTH(AY9),DAY(AY9))</f>
+        <f t="shared" ref="AW9:AW26" si="0">DATE(YEAR(AY9)+2,MONTH(AY9),DAY(AY9))</f>
         <v>46979</v>
       </c>
       <c r="AX9" s="3" t="s">
@@ -19629,7 +19626,7 @@
         <v>44803</v>
       </c>
       <c r="AW10" s="9">
-        <f>DATE(YEAR(AY10)+2,MONTH(AY10),DAY(AY10))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX10" s="3" t="s">
@@ -19740,7 +19737,7 @@
         <v>44803</v>
       </c>
       <c r="AW11" s="9">
-        <f>DATE(YEAR(AY11)+2,MONTH(AY11),DAY(AY11))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX11" s="3" t="s">
@@ -19851,7 +19848,7 @@
         <v>44803</v>
       </c>
       <c r="AW12" s="9">
-        <f>DATE(YEAR(AY12)+2,MONTH(AY12),DAY(AY12))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX12" s="3" t="s">
@@ -19962,7 +19959,7 @@
         <v>44803</v>
       </c>
       <c r="AW13" s="9">
-        <f>DATE(YEAR(AY13)+2,MONTH(AY13),DAY(AY13))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX13" s="3" t="s">
@@ -20073,7 +20070,7 @@
         <v>44803</v>
       </c>
       <c r="AW14" s="9">
-        <f>DATE(YEAR(AY14)+2,MONTH(AY14),DAY(AY14))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX14" s="3" t="s">
@@ -20184,7 +20181,7 @@
         <v>44803</v>
       </c>
       <c r="AW15" s="9">
-        <f>DATE(YEAR(AY15)+2,MONTH(AY15),DAY(AY15))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX15" s="3" t="s">
@@ -20295,7 +20292,7 @@
         <v>44803</v>
       </c>
       <c r="AW16" s="9">
-        <f>DATE(YEAR(AY16)+2,MONTH(AY16),DAY(AY16))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX16" s="3" t="s">
@@ -20406,7 +20403,7 @@
         <v>44803</v>
       </c>
       <c r="AW17" s="9">
-        <f>DATE(YEAR(AY17)+2,MONTH(AY17),DAY(AY17))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX17" s="3" t="s">
@@ -20517,7 +20514,7 @@
         <v>44803</v>
       </c>
       <c r="AW18" s="9">
-        <f>DATE(YEAR(AY18)+2,MONTH(AY18),DAY(AY18))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX18" s="3" t="s">
@@ -20628,7 +20625,7 @@
         <v>44803</v>
       </c>
       <c r="AW19" s="9">
-        <f>DATE(YEAR(AY19)+2,MONTH(AY19),DAY(AY19))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -20739,7 +20736,7 @@
         <v>44803</v>
       </c>
       <c r="AW20" s="9">
-        <f>DATE(YEAR(AY20)+2,MONTH(AY20),DAY(AY20))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX20" s="3" t="s">
@@ -20850,7 +20847,7 @@
         <v>44803</v>
       </c>
       <c r="AW21" s="9">
-        <f>DATE(YEAR(AY21)+2,MONTH(AY21),DAY(AY21))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX21" s="3" t="s">
@@ -20953,7 +20950,7 @@
         <v>44803</v>
       </c>
       <c r="AW22" s="9">
-        <f>DATE(YEAR(AY22)+2,MONTH(AY22),DAY(AY22))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX22" s="3" t="s">
@@ -21040,7 +21037,7 @@
         <v>44803</v>
       </c>
       <c r="AW23" s="9">
-        <f>DATE(YEAR(AY23)+2,MONTH(AY23),DAY(AY23))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX23" s="3" t="s">
@@ -21124,7 +21121,7 @@
         <v>44803</v>
       </c>
       <c r="AW24" s="9">
-        <f>DATE(YEAR(AY24)+2,MONTH(AY24),DAY(AY24))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX24" s="3" t="s">
@@ -21208,7 +21205,7 @@
         <v>44803</v>
       </c>
       <c r="AW25" s="9">
-        <f>DATE(YEAR(AY25)+2,MONTH(AY25),DAY(AY25))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX25" s="3" t="s">
@@ -21292,7 +21289,7 @@
         <v>44803</v>
       </c>
       <c r="AW26" s="9">
-        <f>DATE(YEAR(AY26)+2,MONTH(AY26),DAY(AY26))</f>
+        <f t="shared" si="0"/>
         <v>46979</v>
       </c>
       <c r="AX26" s="3" t="s">
@@ -21723,62 +21720,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="E1" s="64" t="s">
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="E1" s="67" t="s">
         <v>1014</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="I1" s="64" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="67" t="s">
         <v>1014</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="M1" s="103" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
+      <c r="M1" s="106" t="s">
         <v>1014</v>
       </c>
-      <c r="N1" s="104"/>
-      <c r="O1" s="105"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="105"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="105"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="78"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="78"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="108"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="81"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="81"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="108"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="108"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="108"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="81"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="111"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="111"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -23074,70 +23071,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>565</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="E1" s="67" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="U1" s="87" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="U1" s="90" t="s">
         <v>1968</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="64" t="s">
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="67" t="s">
         <v>1968</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="64" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="67" t="s">
         <v>1968</v>
       </c>
-      <c r="AF1" s="66"/>
+      <c r="AF1" s="69"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="74"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="77"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -24969,15 +24966,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AF2"/>
+    <mergeCell ref="U1:W2"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:G2"/>
     <mergeCell ref="I1:K2"/>
     <mergeCell ref="M1:O2"/>
     <mergeCell ref="Q1:S2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AF2"/>
-    <mergeCell ref="U1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -25006,20 +25003,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
@@ -25495,32 +25492,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -26170,180 +26167,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="78"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="78"/>
-      <c r="AG1" s="58" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="81"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="81"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="81"/>
+      <c r="AG1" s="61" t="s">
         <v>804</v>
       </c>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="83"/>
-      <c r="AK1" s="87" t="s">
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="86"/>
+      <c r="AK1" s="90" t="s">
         <v>974</v>
       </c>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="87"/>
-      <c r="BE1" s="87"/>
-      <c r="BF1" s="87"/>
-      <c r="BG1" s="87"/>
-      <c r="BH1" s="64" t="s">
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BE1" s="90"/>
+      <c r="BF1" s="90"/>
+      <c r="BG1" s="90"/>
+      <c r="BH1" s="67" t="s">
         <v>2679</v>
       </c>
-      <c r="BI1" s="70"/>
-      <c r="BK1" s="64" t="s">
+      <c r="BI1" s="73"/>
+      <c r="BK1" s="67" t="s">
         <v>974</v>
       </c>
-      <c r="BL1" s="66"/>
-      <c r="BN1" s="64" t="s">
+      <c r="BL1" s="69"/>
+      <c r="BN1" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="64" t="s">
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="67" t="s">
         <v>804</v>
       </c>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="66"/>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="66"/>
-      <c r="CB1" s="64" t="s">
+      <c r="BR1" s="68"/>
+      <c r="BS1" s="69"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="68"/>
+      <c r="BZ1" s="69"/>
+      <c r="CB1" s="67" t="s">
         <v>2809</v>
       </c>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="66"/>
-      <c r="CE1" s="64" t="s">
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="69"/>
+      <c r="CE1" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="64" t="s">
+      <c r="CF1" s="68"/>
+      <c r="CG1" s="68"/>
+      <c r="CH1" s="67" t="s">
         <v>2809</v>
       </c>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="65"/>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="66"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="66"/>
-      <c r="CQ1" s="64" t="s">
+      <c r="CI1" s="68"/>
+      <c r="CJ1" s="68"/>
+      <c r="CK1" s="68"/>
+      <c r="CL1" s="68"/>
+      <c r="CM1" s="69"/>
+      <c r="CN1" s="67"/>
+      <c r="CO1" s="68"/>
+      <c r="CP1" s="69"/>
+      <c r="CQ1" s="67" t="s">
         <v>2916</v>
       </c>
-      <c r="CR1" s="65"/>
-      <c r="CS1" s="66"/>
+      <c r="CR1" s="68"/>
+      <c r="CS1" s="69"/>
     </row>
     <row r="2" spans="1:97" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="86"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="72"/>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="69"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="73"/>
-      <c r="BR2" s="75"/>
-      <c r="BS2" s="74"/>
-      <c r="BX2" s="67"/>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="69"/>
-      <c r="CB2" s="67"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="69"/>
-      <c r="CE2" s="67"/>
-      <c r="CF2" s="68"/>
-      <c r="CG2" s="68"/>
-      <c r="CH2" s="67"/>
-      <c r="CI2" s="68"/>
-      <c r="CJ2" s="68"/>
-      <c r="CK2" s="68"/>
-      <c r="CL2" s="68"/>
-      <c r="CM2" s="69"/>
-      <c r="CN2" s="67"/>
-      <c r="CO2" s="68"/>
-      <c r="CP2" s="69"/>
-      <c r="CQ2" s="67"/>
-      <c r="CR2" s="68"/>
-      <c r="CS2" s="69"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BE2" s="90"/>
+      <c r="BF2" s="90"/>
+      <c r="BG2" s="90"/>
+      <c r="BH2" s="74"/>
+      <c r="BI2" s="75"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="72"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="77"/>
+      <c r="BQ2" s="76"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="77"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="71"/>
+      <c r="BZ2" s="72"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="71"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="71"/>
+      <c r="CG2" s="71"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="71"/>
+      <c r="CJ2" s="71"/>
+      <c r="CK2" s="71"/>
+      <c r="CL2" s="71"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="71"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="71"/>
+      <c r="CS2" s="72"/>
     </row>
     <row r="3" spans="1:97" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -32665,14 +32662,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -32731,14 +32728,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -32819,14 +32816,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -32885,14 +32882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -32973,16 +32970,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>822</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="114"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -32991,7 +32988,7 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -33055,20 +33052,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -33077,7 +33074,7 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="58" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="28" t="s">
@@ -33086,7 +33083,7 @@
       <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -33139,20 +33136,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -33161,7 +33158,7 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="58" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="28" t="s">
@@ -33170,7 +33167,7 @@
       <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -33223,20 +33220,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -33245,7 +33242,7 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="58" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="28" t="s">
@@ -33254,7 +33251,7 @@
       <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -33518,20 +33515,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -33799,14 +33796,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="109"/>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
+      <c r="A1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -33956,20 +33953,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -34119,14 +34116,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="115"/>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -34185,42 +34182,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="115"/>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="64" t="s">
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="67" t="s">
         <v>2278</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="64" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="67" t="s">
         <v>2279</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="66"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="69"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="69"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="72"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -34717,14 +34714,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="116"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
+      <c r="A1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="127"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -34932,28 +34929,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="64" t="s">
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="67" t="s">
         <v>2253</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -35536,14 +35533,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -35649,22 +35646,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>1057</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -35905,20 +35902,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -35995,32 +35992,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
-      <c r="I1" s="64" t="s">
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
+      <c r="I1" s="67" t="s">
         <v>1968</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="L1" s="64" t="s">
+      <c r="J1" s="69"/>
+      <c r="L1" s="67" t="s">
         <v>565</v>
       </c>
-      <c r="M1" s="66"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="69"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="69"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="72"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -37070,16 +37067,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>1082</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -37148,7 +37145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -37160,14 +37157,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -37260,100 +37257,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="78"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="78"/>
-      <c r="AC1" s="87" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="81"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="81"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="81"/>
+      <c r="AC1" s="90" t="s">
         <v>942</v>
       </c>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="64" t="s">
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="67" t="s">
         <v>942</v>
       </c>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="67" t="s">
         <v>2525</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="66"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="66"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="69"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="69"/>
     </row>
     <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="81"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="69"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="69"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="72"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="72"/>
     </row>
     <row r="3" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -39755,8 +39752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39767,14 +39764,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -39788,145 +39785,145 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>43658</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="4">
         <v>43658</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>43658</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="4">
         <v>43658</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>43658</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="4">
         <v>43658</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>43658</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="4">
         <v>43658</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>43658</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>43658</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>43658</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="4">
         <v>43658</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="4">
         <v>43293</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="4">
         <v>43658</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="4">
         <v>43293</v>
       </c>
     </row>
@@ -39943,7 +39940,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39954,14 +39951,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -39975,13 +39972,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>45298</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>44568</v>
       </c>
     </row>
@@ -40009,14 +40006,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -40149,72 +40146,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AC1" s="103" t="s">
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AC1" s="106" t="s">
         <v>2463</v>
       </c>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="105"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="64" t="s">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="108"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="67" t="s">
         <v>2499</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="108"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="111"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -42008,7 +42005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane xSplit="19995" topLeftCell="L1"/>
       <selection activeCell="M4" sqref="M4"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
@@ -42031,32 +42028,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -42659,7 +42656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -42679,20 +42676,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="70"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="72"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -45021,14 +45018,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -45164,14 +45161,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -45263,14 +45260,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -45318,14 +45315,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -45427,56 +45424,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -46690,20 +46687,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -46973,14 +46970,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -47064,20 +47061,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -47288,14 +47285,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -47772,14 +47769,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -47874,22 +47871,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="E1" s="64" t="s">
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="E1" s="67" t="s">
         <v>2298</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -47979,24 +47976,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>1715</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="E1" s="67" t="s">
         <v>2261</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -48239,14 +48236,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -48294,14 +48291,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -48414,7 +48411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -48429,20 +48426,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -48524,46 +48521,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="U1" s="64" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="U1" s="67" t="s">
         <v>2238</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="69"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="72"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -49961,14 +49958,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -50038,14 +50035,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -50094,14 +50091,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -50149,14 +50146,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -50218,20 +50215,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -50651,14 +50648,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -50811,132 +50808,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AC1" s="87" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AC1" s="90" t="s">
         <v>1524</v>
       </c>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AO1" s="87" t="s">
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AO1" s="90" t="s">
         <v>1822</v>
       </c>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AS1" s="87" t="s">
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AS1" s="90" t="s">
         <v>1891</v>
       </c>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AW1" s="87" t="s">
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AW1" s="90" t="s">
         <v>1524</v>
       </c>
-      <c r="AX1" s="88"/>
-      <c r="AY1" s="88"/>
-      <c r="AZ1" s="64" t="s">
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="67" t="s">
         <v>1891</v>
       </c>
-      <c r="BA1" s="66"/>
-      <c r="BC1" s="64" t="s">
+      <c r="BA1" s="69"/>
+      <c r="BC1" s="67" t="s">
         <v>1524</v>
       </c>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="64" t="s">
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="69"/>
+      <c r="BF1" s="67" t="s">
         <v>2560</v>
       </c>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="64" t="s">
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="67" t="s">
         <v>1891</v>
       </c>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="64" t="s">
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="69"/>
+      <c r="BL1" s="67" t="s">
         <v>2577</v>
       </c>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="66"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="69"/>
     </row>
     <row r="2" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="69"/>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="74"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="67"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="69"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="72"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="77"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="72"/>
     </row>
     <row r="3" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -54809,70 +54806,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="70"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="64" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="73"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="67" t="s">
         <v>2525</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="64" t="s">
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="67" t="s">
         <v>2525</v>
       </c>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="64" t="s">
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="67" t="s">
         <v>1082</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="66"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="69"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="74"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="77"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -56437,20 +56434,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">

--- a/jadwal_kalenderkui.xlsx
+++ b/jadwal_kalenderkui.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/384a2e2a33609d7f/ドキュメント/kalender/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="11_B0EF37B394641FD2FA44F2C0793D7506FA377F02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3A1A54F-EBBF-4C5C-9AAE-9327C1A97F0C}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="11_B0EF37B394641FD2FA44F2C0793D7506FA377F02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57942DA3-D56A-4C48-BFD6-0A8D4510588D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="883" firstSheet="243" activeTab="247" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT.MAYA AGRO INVESTAMA (1)" sheetId="1" r:id="rId1"/>
@@ -10406,8 +10406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45959</v>
+        <v>45969</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45959</v>
+        <v>45969</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -51846,7 +51846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188E9DDA-B2D5-47D2-B9EC-97CBF0690B6A}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
